--- a/public/soccerLightSecondary.xlsx
+++ b/public/soccerLightSecondary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>teamName</t>
   </si>
@@ -40,13 +40,139 @@
     <t>score</t>
   </si>
   <si>
-    <t>FDMX1</t>
+    <t>Esquire</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>2</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>HotWheels</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>GoldenBrains</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Farzanegan1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Magnet</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Nayden</t>
+  </si>
+  <si>
+    <t>T.M.122</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>com.</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>F¹Cruel bot</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Dark.Light</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Yato</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>Data pirates</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>Exynos</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>++MAC</t>
+  </si>
+  <si>
+    <t>Robo</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>Egale</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Fantastic two</t>
+  </si>
+  <si>
+    <t>Port MA</t>
+  </si>
+  <si>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>«نخبگان علامه حلي 5»</t>
+  </si>
+  <si>
+    <t>-20</t>
   </si>
 </sst>
 </file>
@@ -96,7 +222,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -139,25 +265,634 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
